--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ironpython_training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>name4</t>
+    <t>namerH</t>
   </si>
   <si>
-    <t>name`z</t>
+    <t>nameN</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -114,7 +114,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -161,6 +161,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -196,6 +213,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -350,18 +384,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
